--- a/biology/Zoologie/Acrosternum_heegeri/Acrosternum_heegeri.xlsx
+++ b/biology/Zoologie/Acrosternum_heegeri/Acrosternum_heegeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrosternum hegeeri est une espèce d'insectes hémiptères du sous-ordre des hétéroptères (punaises) de la famille des Pentatomidae, de la sous-famille des Pentatominae, de la tribu des Pentatomini (ou des Nezarini selon les classifications).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette punaise de forme ovale est uniformément verte avec une fine bordure pâle le long du pronotum, de l’exocorie et du connexivum. Parfois, deux petites taches jaunes sont présentes à l’apex du scutellum. Les individus hivernants deviennent généralement rouge-brun. La membrane est claire. Le clypeus est libre et les antennes bicolores (rouges et vertes).
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est retrouvée dans le bassin méditerranéen et le Moyen-Orient[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est retrouvée dans le bassin méditerranéen et le Moyen-Orient.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A. Heegeri est une espèce polyphage mais est notamment reconnue comme un ravageur des pistachiers[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. Heegeri est une espèce polyphage mais est notamment reconnue comme un ravageur des pistachiers.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce Acrosternum heegeri est décrite pour la première fois par l'entomologiste tchèque Franz Xaver Fieber en 1861.
 </t>
